--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>Qrup 2</t>
+  </si>
+  <si>
+    <t>19.07.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -188,6 +207,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -483,7 +511,8 @@
     <col min="4" max="4" width="10.59765625" style="4" customWidth="1"/>
     <col min="5" max="6" width="9.06640625" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.06640625" style="4"/>
+    <col min="8" max="8" width="10.3984375" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9.06640625" style="4"/>
     <col min="14" max="14" width="21.33203125" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.46484375" customWidth="1"/>
@@ -507,7 +536,9 @@
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -534,18 +565,20 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,17 +596,19 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="N3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -588,17 +623,23 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -616,7 +657,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -640,7 +683,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -661,7 +704,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -681,8 +726,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -702,8 +749,12 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -723,8 +774,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -736,12 +789,22 @@
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>

--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>19.07.2024</t>
+  </si>
+  <si>
+    <t>26.08.2024</t>
+  </si>
+  <si>
+    <t>Mamed</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -511,8 +517,8 @@
     <col min="4" max="4" width="10.59765625" style="4" customWidth="1"/>
     <col min="5" max="6" width="9.06640625" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="9.06640625" style="4"/>
+    <col min="8" max="9" width="10.3984375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.06640625" style="4"/>
     <col min="14" max="14" width="21.33203125" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.46484375" customWidth="1"/>
@@ -539,7 +545,9 @@
       <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="N1" t="s">
@@ -569,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="N2" s="11" t="s">
@@ -599,7 +607,7 @@
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="N3" s="10" t="s">
@@ -633,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="N4" s="10" t="s">
@@ -660,7 +668,7 @@
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="N5" s="11" t="s">
@@ -684,7 +692,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
@@ -707,7 +717,9 @@
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
@@ -730,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -755,7 +767,9 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -778,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -805,20 +819,22 @@
         <v>5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>

--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Mamed</t>
+  </si>
+  <si>
+    <t>28.08.2024</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -195,13 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +218,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +516,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -548,7 +558,9 @@
       <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="N1" t="s">
         <v>17</v>
@@ -564,11 +576,11 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
       <c r="E2" s="2"/>
@@ -578,15 +590,15 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -594,7 +606,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
@@ -608,15 +620,15 @@
         <v>4</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -624,7 +636,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
@@ -642,12 +654,12 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -655,7 +667,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
@@ -669,9 +681,9 @@
         <v>4</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -679,7 +691,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -695,39 +707,41 @@
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+    <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -738,46 +752,48 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -793,14 +809,14 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2">
@@ -820,7 +836,9 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -835,7 +853,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">

--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>28.08.2024</t>
+  </si>
+  <si>
+    <t>04.09.2024</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -231,6 +240,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +528,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,7 +540,8 @@
     <col min="5" max="6" width="9.06640625" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.3984375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.06640625" style="4"/>
+    <col min="10" max="10" width="9.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.46484375" customWidth="1"/>
@@ -561,7 +574,9 @@
       <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="N1" t="s">
         <v>17</v>
       </c>
@@ -591,7 +606,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3"/>
       <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
@@ -621,7 +636,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
       <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
@@ -655,7 +670,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3"/>
       <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
@@ -682,7 +697,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3"/>
       <c r="N5" s="9" t="s">
         <v>13</v>
       </c>
@@ -708,7 +723,9 @@
         <v>4</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
@@ -735,7 +752,9 @@
       <c r="J7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
@@ -758,7 +777,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
@@ -787,7 +806,7 @@
       <c r="J9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
@@ -810,7 +829,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -839,7 +858,7 @@
       <c r="J11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
@@ -854,7 +873,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>

--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>04.09.2024</t>
+  </si>
+  <si>
+    <t>09.10.2024</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +534,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L2" sqref="L2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -577,6 +583,9 @@
       <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N1" t="s">
         <v>17</v>
       </c>
@@ -607,6 +616,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="L2" s="9">
+        <v>2</v>
+      </c>
       <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
@@ -637,6 +649,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
       <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
@@ -671,6 +686,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
+      <c r="L4" s="9"/>
       <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
@@ -698,6 +714,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>13</v>
       </c>
@@ -726,6 +745,7 @@
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
@@ -755,6 +775,7 @@
       <c r="K7" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
@@ -778,6 +799,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
@@ -807,6 +831,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="20"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
@@ -830,6 +855,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -859,6 +885,9 @@
         <v>4</v>
       </c>
       <c r="K11" s="3"/>
+      <c r="L11" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
@@ -874,6 +903,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>

--- a/Davamiyyet ve qiymetlendirme.xlsx
+++ b/Davamiyyet ve qiymetlendirme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>09.10.2024</t>
+  </si>
+  <si>
+    <t>18.10.2024</t>
   </si>
 </sst>
 </file>
@@ -531,29 +534,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L12"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.06640625" style="4"/>
+    <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.3984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.46484375" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -586,17 +593,20 @@
       <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -619,17 +629,18 @@
       <c r="L2" s="9">
         <v>2</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -652,17 +663,18 @@
       <c r="L3" s="9">
         <v>2</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="9"/>
+      <c r="O3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -687,14 +699,15 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="9"/>
+      <c r="O4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -717,11 +730,12 @@
       <c r="L5" s="9">
         <v>2</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -746,8 +760,9 @@
         <v>4</v>
       </c>
       <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -776,8 +791,9 @@
         <v>4</v>
       </c>
       <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -802,8 +818,9 @@
       <c r="L8" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -832,8 +849,9 @@
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -856,8 +874,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -888,8 +907,9 @@
       <c r="L11" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -904,8 +924,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -918,7 +939,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -931,7 +952,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -944,7 +965,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -957,7 +978,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -970,7 +991,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -983,7 +1004,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -996,7 +1017,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1009,7 +1030,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1022,7 +1043,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
